--- a/KasaDevices/Docs/Documentation.xlsx
+++ b/KasaDevices/Docs/Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - HubitatActive\KasaDevices\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 6-6-1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65775D1D-7099-4097-8126-30F40001BE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46E8C5-4D96-4E7F-A640-0A47A9BBF4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="-270" windowWidth="15030" windowHeight="15240" firstSheet="4" activeTab="6" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="1590" yWindow="0" windowWidth="15030" windowHeight="15240" firstSheet="4" activeTab="6" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="Install" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Application Description'!$B$1:$H$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$1:$C$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$1:$C$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Device Capabilities'!$B$1:$H$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Preferences'!$B$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$47</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="228">
   <si>
     <t>Note</t>
   </si>
@@ -2022,6 +2022,9 @@
   </si>
   <si>
     <t>Version 6.6.1 Changes</t>
+  </si>
+  <si>
+    <t>Redirected Kasa Help Link to read.me with further links in read.me</t>
   </si>
 </sst>
 </file>
@@ -2390,6 +2393,99 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2411,99 +2507,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2513,15 +2516,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2552,17 +2567,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2573,29 +2600,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2605,21 +2623,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3313,360 +3316,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="2:8" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="2:8" ht="105.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="42" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="42" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
     </row>
     <row r="36" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>5</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="62"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
     </row>
     <row r="37" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="25"/>
@@ -3687,117 +3690,117 @@
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="65"/>
     </row>
     <row r="41" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
     </row>
     <row r="42" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
     </row>
     <row r="43" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="30" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
     </row>
     <row r="45" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="62"/>
+      <c r="D45" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="30" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="30" t="s">
+      <c r="C47" s="62"/>
+      <c r="D47" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F48" s="2"/>
@@ -3805,18 +3808,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="F23:H35"/>
-    <mergeCell ref="B23:E35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="F8:H22"/>
-    <mergeCell ref="B8:E22"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="D46:H46"/>
@@ -3833,6 +3824,18 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="F23:H35"/>
+    <mergeCell ref="B23:E35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="F8:H22"/>
+    <mergeCell ref="B8:E22"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D41" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
@@ -3875,41 +3878,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="2:8" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
@@ -3926,40 +3929,40 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" s="11" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8" s="11" customFormat="1" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="2:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="67" t="s">
@@ -3976,130 +3979,145 @@
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:H14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="B19:C19"/>
@@ -4110,21 +4128,6 @@
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:H17"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{1590C945-579A-4941-9BC8-D85F2FE04924}"/>
@@ -4165,475 +4168,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" s="9" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="82" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="72"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" s="9" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="43" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="10"/>
       <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="61" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="43" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="43" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="62"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="61" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="62"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="61" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="62"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="61" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="62"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="67" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="68"/>
     </row>
     <row r="21" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="71" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="72"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="42" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="63" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="63"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="42" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="44"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="47"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="47"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="47"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="42" t="s">
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="44"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="50"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="42" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="44"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="50"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="71" t="s">
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="72"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="67" t="s">
         <v>39</v>
       </c>
       <c r="H37" s="69"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="67" t="s">
         <v>40</v>
       </c>
       <c r="H38" s="69"/>
     </row>
     <row r="39" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="42" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="44"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="47"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="47"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="50"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="42" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="44"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="47"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="47"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B3:F20"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="G10:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G39:H42"/>
     <mergeCell ref="G43:H45"/>
@@ -4650,19 +4666,6 @@
     <mergeCell ref="G23:H25"/>
     <mergeCell ref="G27:H30"/>
     <mergeCell ref="G31:H32"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B3:F20"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G10:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4695,423 +4698,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97" t="s">
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="97"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="63"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="63"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="63" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="63"/>
+      <c r="H9" s="56"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="63"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="63" t="s">
+      <c r="C11" s="88"/>
+      <c r="D11" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="63" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="63"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="88"/>
+      <c r="D13" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63" t="s">
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="63"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="63" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="63"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="63" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63" t="s">
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="63"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="63" t="s">
+      <c r="C16" s="88"/>
+      <c r="D16" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="63"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="63" t="s">
+      <c r="C17" s="88"/>
+      <c r="D17" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="63"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="91"/>
     </row>
     <row r="20" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="97"/>
+      <c r="H20" s="94"/>
     </row>
     <row r="21" spans="2:8" s="1" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="63" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="63"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="63" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63" t="s">
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="63"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="63" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="63"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="2:8" s="1" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="63" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63" t="s">
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="63"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="63" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63" t="s">
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="63"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="2:8" s="1" customFormat="1" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="63" t="s">
+      <c r="C26" s="88"/>
+      <c r="D26" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63" t="s">
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="63"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" spans="2:8" s="1" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="63" t="s">
+      <c r="C27" s="88"/>
+      <c r="D27" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63" t="s">
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="63"/>
+      <c r="H27" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:H27"/>
@@ -5128,30 +5124,37 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5183,186 +5186,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="2:8" s="13" customFormat="1" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="2:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="105"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="2:8" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="102"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="102"/>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="101" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="102"/>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="101" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="102"/>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="101" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="102"/>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="101" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="102"/>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
     </row>
     <row r="11" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8" s="4" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="101" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="102"/>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="101" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="102"/>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="101" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="102"/>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -5379,6 +5375,13 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5410,32 +5413,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="56" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="106"/>
@@ -5448,7 +5451,7 @@
       <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="56" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="106"/>
@@ -5458,28 +5461,28 @@
       <c r="H4" s="106"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
@@ -5498,33 +5501,33 @@
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="56" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="106"/>
@@ -5534,26 +5537,26 @@
       <c r="H10" s="106"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="89"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
@@ -5572,20 +5575,20 @@
       <c r="B14" s="14">
         <v>2</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="106"/>
@@ -5596,6 +5599,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
@@ -5605,12 +5614,6 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5620,10 +5623,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FC7E-86F3-4E8F-B488-D1BDD385F89C}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5652,342 +5655,353 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-    </row>
-    <row r="4" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+    </row>
+    <row r="5" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B8" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>203</v>
-      </c>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="115" t="s">
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B17" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C17" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="111" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>196</v>
-      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B20" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C20" s="27" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="115" t="s">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B22" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>170</v>
       </c>
       <c r="C25" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-    </row>
-    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+    </row>
+    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B31" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C31" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="111" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+    <row r="35" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B36" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KasaDevices/Docs/Documentation.xlsx
+++ b/KasaDevices/Docs/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 6-6-1\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 6-7-0\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46E8C5-4D96-4E7F-A640-0A47A9BBF4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F75E2-2FB2-43D2-81B9-6DE217759805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="0" windowWidth="15030" windowHeight="15240" firstSheet="4" activeTab="6" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="13005" yWindow="-270" windowWidth="15675" windowHeight="16200" firstSheet="1" activeTab="2" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="Install" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Changes" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Application Description'!$B$1:$H$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$1:$C$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Device Capabilities'!$B$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Application Description'!$B$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$1:$C$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Device Capabilities'!$B$1:$H$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Preferences'!$B$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Troubleshooting!$B$1:$H$15</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="236">
   <si>
     <t>Note</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Cloud, Lan, and Device Control Settings</t>
-  </si>
-  <si>
     <t>This is the initial page when the application is started</t>
   </si>
   <si>
@@ -94,89 +91,6 @@
   </si>
   <si>
     <t>Application Documentation Link</t>
-  </si>
-  <si>
-    <t>Cloud, Lan, and Device Control Setup (discussed later)</t>
-  </si>
-  <si>
-    <t>Current Configuration.  The current application configuration settings, as set by the above.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Install Kasa Devices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.  When selected will search for Kasa devices and provide a list of discovered devices for installation selection.  The default Configuration will work if your Hubitat Hub and devices are on the same LAN segment.  This is normal for unless you have explicitly set up segments.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove Kasa Devices. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>List of devices for removal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Application Utilities.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Some user utilities.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Interface to Kasa Cloud for device control</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.  This option requires that you have created a Kasa Token (see Kasa Login and Token Update).</t>
-    </r>
   </si>
   <si>
     <t>Device Preferences</t>
@@ -250,124 +164,10 @@
 Issues on device control:  See link to Troubleshooting.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kasa Login and Token Update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.  For LAN control, you will need to provide your Kasa App credentials.
-Note: Refresh browser when done to see token.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Select from Discovery Options</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:  Allows to select LAN, CLOUD, or BOTH discovery Options
-a. LAN. Takes several minutes.  Can miss devices.
-B. CLOUD. Requires credentials.  Fast.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LAN Segments</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:  For complex topologies, the segments that will be searched during LAN discovery.</t>
-    </r>
-  </si>
-  <si>
-    <t>Host Address Range:  Shortens search range from the entire segment to a select subset.</t>
-  </si>
-  <si>
     <t>Kasa Local Hubitat Integration</t>
   </si>
   <si>
     <t>Application Utilities</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.  Removes the application and all installed devs.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Done</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.  Done with Application.</t>
-    </r>
-  </si>
-  <si>
-    <t>Enable debug logging fo 30 minutes</t>
   </si>
   <si>
     <t>List All Kasa Device with IP Address.</t>
@@ -397,27 +197,6 @@
 a.  A ping test of 3 pings
 b.  A system status command to the device.
 Reports ping results and status command Pass/Fail.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Reset the Device Database</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Zeroizes the device database.  It then rediscovers the devices using the discover method defined above.</t>
     </r>
   </si>
   <si>
@@ -615,9 +394,6 @@
   </si>
   <si>
     <t>Run the Application</t>
-  </si>
-  <si>
-    <t>When code installation is complete, open the app and run reset the device database.  This will cause the device to verify IP addresses and run the Updated method in each driver.</t>
   </si>
   <si>
     <t>Note:  Not all preference are applicable for your individual devices.  All available preference are in the preferences section of the Device's Edit page.</t>
@@ -2025,6 +1801,238 @@
   </si>
   <si>
     <t>Redirected Kasa Help Link to read.me with further links in read.me</t>
+  </si>
+  <si>
+    <t>Version 6.7.0 Changes</t>
+  </si>
+  <si>
+    <t>Final fix in getToken generating new termId for each try.</t>
+  </si>
+  <si>
+    <t>Cloud getToken fix</t>
+  </si>
+  <si>
+    <t>Install Help</t>
+  </si>
+  <si>
+    <t>Removed help notes.  Install instructions available on-line.</t>
+  </si>
+  <si>
+    <t>Configuration Update</t>
+  </si>
+  <si>
+    <t>Configure (capability Configuration)</t>
+  </si>
+  <si>
+    <t>Removed HPM update available notice.
+Now checks IP addresses then runs updated on each child.
+Also updates token if Kasa credentials are present.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add command.  Running on any device will cause App to run Configuration Update (if not done in last 10 minutes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PURPOSE: First troubleshooting step for all problems. </t>
+    </r>
+  </si>
+  <si>
+    <t>Cloud connection.  Isolate fatal error so method execution will not crash when a null is returned from the cloud.</t>
+  </si>
+  <si>
+    <t>Cloud Comms crash</t>
+  </si>
+  <si>
+    <t>On any Kasa device, run the "CONFIGURE" Command.  This only needs be done on one of the Kasa devices.</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cmd:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Configure</t>
+    </r>
+  </si>
+  <si>
+    <t>Causes app to check for IP updates, update the Kasa Cloud token, and then run updated on all installed Kasa Devices.  Running from any device updates all devices.  Rate limited to once every 10 minutes.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modify LAN Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Usually not necessary.  Switched on entries below to enable modify the segment, Address Range, and port(s) for unusual LAN configuraitons.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scan Lan for Kasa devices and add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Does a scan of the Lan Segments, Address Range, and Ports.  Generates the device database the calls the Add Devices Page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Problems with Install?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  Toggles other installation options (illustrated below).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remove Kasa Devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Generate list of installed devices for removal selection and removal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kasa Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Toggles the utilities (see below).</t>
+    </r>
+  </si>
+  <si>
+    <t>REMOVE:  Removes the APP and ALL CHILDREN.</t>
+  </si>
+  <si>
+    <t>Alternative Methods for Installation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Manually enter data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  Manual Manually entry install sceen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ge Kasa devices from the Kasa Cloud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  Calls Kasa Cloud install screens.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2307,7 +2315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2325,9 +2333,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2336,9 +2341,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2393,6 +2395,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2486,27 +2521,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2516,24 +2530,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2543,29 +2539,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2591,14 +2584,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2609,21 +2608,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2662,6 +2646,87 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2867,22 +2932,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43133</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>150591</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>675737</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>189782</xdr:rowOff>
+      <xdr:colOff>618615</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3F6623-4199-4EC4-976F-9774E61F44A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B999F3E8-3242-4C68-F09B-3C882259DBEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,8 +2963,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301925" y="6741172"/>
-          <a:ext cx="4272952" cy="3248217"/>
+          <a:off x="295275" y="571500"/>
+          <a:ext cx="4076190" cy="7409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2911,22 +2976,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>51762</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>17254</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628548</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138028</xdr:rowOff>
+      <xdr:colOff>637659</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>704617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6BE415-7B25-42A2-AA0A-BB2154271CC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD5D049-20D8-881F-F0AB-4E711CD59499}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,8 +3007,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="310554" y="1975450"/>
-          <a:ext cx="4217134" cy="4252827"/>
+          <a:off x="266700" y="8515350"/>
+          <a:ext cx="4123809" cy="1866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2955,22 +3020,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>34505</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>60385</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>660436</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>155275</xdr:rowOff>
+      <xdr:colOff>609093</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>780756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003FB3D9-64E2-49C3-87EE-E6B2C05DCCC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6D854-92ED-879D-5DE4-1B1A58236F00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,8 +3051,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="293297" y="10593238"/>
-          <a:ext cx="4266279" cy="2424022"/>
+          <a:off x="304800" y="10753725"/>
+          <a:ext cx="4057143" cy="2352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3301,8 +3366,8 @@
   </sheetPr>
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3316,491 +3381,491 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="2:8" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="C3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="C4" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="2:8" ht="105.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="C5" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="C6" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="2:8" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>5</v>
       </c>
-      <c r="C36" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="55"/>
+      <c r="C36" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
     </row>
     <row r="37" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
+      <c r="B39" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="65"/>
+      <c r="B40" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
+      <c r="B41" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
+      <c r="B42" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
+      <c r="B45" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
+      <c r="B46" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F48" s="2"/>
@@ -3808,6 +3873,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="F23:H35"/>
+    <mergeCell ref="B23:E35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="F8:H22"/>
+    <mergeCell ref="B8:E22"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="D46:H46"/>
@@ -3824,18 +3901,6 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="F23:H35"/>
-    <mergeCell ref="B23:E35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="F8:H22"/>
-    <mergeCell ref="B8:E22"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D41" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
@@ -3863,8 +3928,8 @@
   </sheetPr>
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B1:H19"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3878,246 +3943,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="2:8" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="2:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B4" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
+    </row>
+    <row r="5" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="2:8" s="11" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="C5" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="2:8" s="9" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="2:8" s="11" customFormat="1" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="C6" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+    </row>
+    <row r="7" spans="2:8" s="9" customFormat="1" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-    </row>
-    <row r="8" spans="2:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="2:8" s="11" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="C7" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="2:8" s="9" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
+      <c r="C9" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="B11" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="B12" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="B13" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="B14" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
+      <c r="B17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="B18" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:H14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="B19:C19"/>
@@ -4128,6 +4178,21 @@
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:H17"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="C5:H5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" xr:uid="{1590C945-579A-4941-9BC8-D85F2FE04924}"/>
@@ -4149,10 +4214,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H46"/>
+  <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4167,509 +4232,446 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+    <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-    </row>
-    <row r="2" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-    </row>
-    <row r="3" spans="2:8" s="9" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="86" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
+    </row>
+    <row r="3" spans="2:8" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="4" spans="2:8" s="9" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="36" t="s">
+      <c r="H3" s="124"/>
+    </row>
+    <row r="4" spans="2:8" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="6" t="s">
+    </row>
+    <row r="6" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="113" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="55"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="37"/>
+    <row r="7" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="49"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="125"/>
+    </row>
+    <row r="11" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="118" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="125"/>
+    </row>
+    <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="125"/>
+    </row>
+    <row r="13" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="119" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="125"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="125"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="125"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="55"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="125"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="55"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="125"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="55"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="125"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="55"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="125"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="68"/>
-    </row>
-    <row r="21" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="73"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="126"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="74" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="127"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="127"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="128"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="128"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="129"/>
+    </row>
+    <row r="27" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="133" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="130"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="75"/>
-    </row>
-    <row r="23" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="43"/>
-    </row>
-    <row r="33" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="37"/>
+      <c r="H28" s="124"/>
+    </row>
+    <row r="29" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="132"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="49"/>
+    </row>
+    <row r="30" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="132"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="49"/>
+    </row>
+    <row r="31" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="131"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
+    </row>
+    <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="117"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="130"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="124"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="43"/>
-    </row>
-    <row r="35" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="75"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="137"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="132"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="137"/>
+    </row>
+    <row r="36" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="132"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="49"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="69"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="69"/>
-    </row>
-    <row r="39" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="40"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="40"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="37"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="40"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="40"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="132"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
+    </row>
+    <row r="40" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="131"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G36:H39"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G28:H28"/>
     <mergeCell ref="B3:F20"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H9"/>
-    <mergeCell ref="G10:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G39:H42"/>
-    <mergeCell ref="G43:H45"/>
-    <mergeCell ref="B22:F34"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B36:F46"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G23:H25"/>
-    <mergeCell ref="G27:H30"/>
-    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="31" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4679,10 +4681,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4697,464 +4699,482 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+    <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+    </row>
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="65"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="65"/>
+    </row>
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="65"/>
+    </row>
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="2:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" s="65"/>
+    </row>
+    <row r="11" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-    </row>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="C11" s="83"/>
+      <c r="D11" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="D12" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="65"/>
+    </row>
+    <row r="14" spans="2:8" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-    </row>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="91"/>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="C15" s="83"/>
+      <c r="D15" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="65"/>
+    </row>
+    <row r="16" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="83"/>
+      <c r="D16" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="65"/>
+    </row>
+    <row r="17" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+    </row>
+    <row r="21" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="89"/>
+    </row>
+    <row r="22" spans="2:8" s="1" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94" t="s">
+      <c r="H24" s="65"/>
+    </row>
+    <row r="25" spans="2:8" s="1" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="65"/>
+    </row>
+    <row r="26" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="D26" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="65"/>
+    </row>
+    <row r="27" spans="2:8" s="1" customFormat="1" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="83"/>
+      <c r="D27" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="65"/>
+    </row>
+    <row r="28" spans="2:8" s="1" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="94"/>
-    </row>
-    <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="56"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="56"/>
-    </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="56"/>
-    </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="56"/>
-    </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="56"/>
-    </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="56"/>
-    </row>
-    <row r="17" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
-    </row>
-    <row r="19" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-    </row>
-    <row r="20" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="94"/>
-    </row>
-    <row r="21" spans="2:8" s="1" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="56"/>
-    </row>
-    <row r="23" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="56"/>
-    </row>
-    <row r="24" spans="2:8" s="1" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="56"/>
-    </row>
-    <row r="25" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="56"/>
-    </row>
-    <row r="26" spans="2:8" s="1" customFormat="1" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="2:8" s="1" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="56"/>
+      <c r="H28" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="74">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5169,8 +5189,8 @@
   </sheetPr>
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5185,180 +5205,187 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-    </row>
-    <row r="2" spans="2:8" s="13" customFormat="1" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+    <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="2:8" s="11" customFormat="1" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+    </row>
+    <row r="3" spans="2:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
+    </row>
+    <row r="4" spans="2:8" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
+    </row>
+    <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
+    </row>
+    <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
+    </row>
+    <row r="10" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="94"/>
+      <c r="D10" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="105"/>
-    </row>
-    <row r="3" spans="2:8" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="98" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="97"/>
+    </row>
+    <row r="12" spans="2:8" s="4" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="94"/>
+      <c r="D13" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
-    </row>
-    <row r="4" spans="2:8" s="13" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-    </row>
-    <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-    </row>
-    <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-    </row>
-    <row r="8" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-    </row>
-    <row r="9" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="100"/>
-    </row>
-    <row r="10" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
-    </row>
-    <row r="11" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="100"/>
-    </row>
-    <row r="12" spans="2:8" s="4" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-    </row>
-    <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="B14" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -5375,13 +5402,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5396,7 +5416,7 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5412,199 +5432,193 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+    <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
+      <c r="C3" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
+      <c r="C4" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="C6" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="C7" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="C8" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
+      <c r="C9" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
+      <c r="C10" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
+      <c r="B11" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
+      <c r="B12" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
+      <c r="C13" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
+      <c r="C14" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="C15" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
@@ -5614,6 +5628,12 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5623,385 +5643,448 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FC7E-86F3-4E8F-B488-D1BDD385F89C}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E8:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="27.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A1" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+    </row>
+    <row r="11" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="104"/>
+      <c r="C29" s="105"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-    </row>
-    <row r="5" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="B33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+    </row>
+    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="B38" s="104"/>
+      <c r="C38" s="105"/>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="115" t="s">
+      <c r="B40" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="113"/>
-    </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="113"/>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>167</v>
+      <c r="C42" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KasaDevices/Docs/Documentation.xlsx
+++ b/KasaDevices/Docs/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 6-7-0\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 6-7-1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F75E2-2FB2-43D2-81B9-6DE217759805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B0611A-D7E3-489F-A85B-8EE573B1ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13005" yWindow="-270" windowWidth="15675" windowHeight="16200" firstSheet="1" activeTab="2" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="Install" sheetId="2" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$1:$C$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Device Capabilities'!$B$1:$H$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Preferences'!$B$1:$H$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Troubleshooting!$B$1:$H$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Update Instructions'!$B$1:$H$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Update Instructions'!$B$1:$H$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="253">
   <si>
     <t>Note</t>
   </si>
@@ -98,70 +98,6 @@
   <si>
     <t>Install the device per the manufacturer's instructions using the Kasa Phone Application.
 After installing, verify the device works (simple on-off) using the Phone App.</t>
-  </si>
-  <si>
-    <t>(Optional) Using your router, assign static IP addresses for your devices.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Load the Application and Driver files
-a.  HPM: Search by Keyword for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kasa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>", Package is "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kasa Device Integration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>".
-b.  Manual: From GitHub site:  https://github.com/DaveGut/HubitatActive/tree/master/KasaDevices
-c.  Direct link using the Apps Code and Drivers Code edit page "Import" function using the links at the bottom of this page.  During the Hubitat application running (below), you will be given a list of required drivers for your device(s).  If you do not have the correct driver, the device will not be created.</t>
-    </r>
-  </si>
-  <si>
-    <t>For the HS300 6-outlet multi-plug, the Kasa names for ALL of the outlets must not exceed 96 characters (about 16 characters per outlet).  This is due to Hubitat comms limitation of a single return packet from the device.  This limitation does not exist if you choose a cloud implementation.</t>
-  </si>
-  <si>
-    <t>In Hubita Apps, select "Add User App".  Select "Kasa Integration".</t>
-  </si>
-  <si>
-    <t>Notes on running the Application:
-a.  Most users will not have to use functions other than Install Kasa Devices and Remove Kasa Devices.  Exception is users with complex LAN topologies or (in rare cases) where a device is not LAN controllable.  The LAN controllable device problem is handled in the troubleshooting section.
-b.  Below describes the intended default installation using LAN for all communications.</t>
-  </si>
-  <si>
-    <t>Go to each device and assure you can properly control the device (simple on/off command).
-Issues on device control:  See link to Troubleshooting.</t>
   </si>
   <si>
     <t>Kasa Local Hubitat Integration</t>
@@ -197,74 +133,6 @@
 a.  A ping test of 3 pings
 b.  A system status command to the device.
 Reports ping results and status command Pass/Fail.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Add Kasa Devices Page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1.  Verify that the exact drivers from the list are installed into Hubitat.
-2.  Select your device(s) from the drop down menu.
-3.  Select Next.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Issue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:  All devices not found.  Corrective Attempt: Press Next and then try the "Install Kasa Devices" again.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Issue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:  Devices still do not show up.  You may have a non-LAN device.  Corrective Attempt:
-a.  Press "Next"
-b.  Select "Cloud, Lan, and Device Control Setup"
-c.  Select "Kasa Login and Token Update" and enter credentials. (More info on these pages at the Application Description link.)</t>
     </r>
   </si>
   <si>
@@ -1636,149 +1504,6 @@
     <t>Added Switch to main page.  Moved the Manual and Cloud Add Devices to under a switch to avoid confusion.  Added note on two-factor authentication to Cloud Add page.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kasa Hubitat Integration Page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Device Installation Help</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. Opens a text window with help on Installation of Kasa Devices.
-2.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modify LAN Configuration.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Allows modification of IP Segment(s) and Port(s) for more technical installation; i.e., port forwarding, multi-segment LAN.  Usually not necessary.
-3.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scan LAN for Kasa devices and add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.  NORMAL installation of app using LAN control of devices.
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Problems with Install?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.... Switch to display alternate installation for devices not discovered in LAN installation.  Unusual installation.  Displays: 
-  a.  Manual enter data then add Kasa devices.
-  b.  Get Kasa devices from the Kasa Cloud and add.
-5.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Remove Kasa Devices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.  Allows removal of selected Kasa Devices.
-6.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Enable debug logging for 30 minutes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.  For troubleshooting.</t>
-    </r>
-  </si>
-  <si>
     <t>Improve Save Preferences</t>
   </si>
   <si>
@@ -2033,13 +1758,479 @@
       </rPr>
       <t>:  Calls Kasa Cloud install screens.</t>
     </r>
+  </si>
+  <si>
+    <t>HS300</t>
+  </si>
+  <si>
+    <r>
+      <t>There are currently some limitations on the HS300 installation (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>being worked for future versions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).  The following should be followed prior to installation.  If not, the plug may not install and if you exceed these value later, the plug state may no longer be maintained.
+a.  The name size total must not exceed 15 characters per individual plug.
+b.  All Kasa Schedules attachments to the HS300 should be removed (use the Hubitat capabilities instead).</t>
+    </r>
+  </si>
+  <si>
+    <t>Using your router, assign static IP addresses (DHCP reservations) for your devices.</t>
+  </si>
+  <si>
+    <t>Starting with Hubitat Version 2.3.3, there are two integrations in the Hubitat environment.  The Community method requires installation of the Application and required drivers prior to running the App.  The integrated driver is embedded in the Hub's database.  Once 2.3.3 is released, installation should be used for NEW installations.</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes on running the Application:
+a.  Most users will not have to use functions other than Install Kasa Devices and Remove Kasa Devices.  Exception is users with complex LAN topologies or (in rare cases) where a device is not LAN controllable.  The LAN controllable device problem is handled in the troubleshooting section.
+b.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The below describes the intended default installation using LAN for all communications.</t>
+    </r>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prior to Hubitat version 2.3.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:  Load the Application and Driver files
+a.  HPM: Search by Keyword for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kasa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>", Package is "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kasa Device Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>".
+b.  Manual: From GitHub site:  https://github.com/DaveGut/HubitatActive/tree/master/KasaDevices
+c.  Direct link using the Apps Code and Drivers Code edit page "Import" function using the links at the bottom of this page.  During the Hubitat application running (below), you will be given a list of required drivers for your device(s).  If you do not have the correct driver, the device will not be created.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>After Hubitat 2.3.3 is release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, code installation is not requred.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hubitat version 2.3.3 and later.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.  Go to Apps
+b.  Select "Add Built-in App"
+c.  Scroll down and select "Kasa Integration"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hubitat version 2.3.2 and earlier.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.  Go to Apps
+b.  Select "Add User App"
+c.  Scroll down and select "Kasa Integration"</t>
+    </r>
+  </si>
+  <si>
+    <t>Select "Scan LAN for Kasa devices and add"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LAN Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: for advanced LAN configuration users.  Allows for segmented LANs, port forwarding as options is set up in router.
+2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modify LAN Configuration.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Allows modification of IP Segment(s) and Port(s) for more technical installation; i.e., port forwarding, multi-segment LAN.  See application instructions for more information.
+3.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scan LAN for Kasa devices and add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.  NORMAL installation of app using LAN control of devices.
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Problems with Install?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.  For use if LAN discovery misses some devices.  See application instructions for more information.
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kasa Integration Utilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.  See application instructions.
+6.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remove Kasa Devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.  See application instructions.
+7.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Enable debug logging for 30 minutes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.  For troubleshooting.
+8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Migrate Kasa devices to built-in app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  See Community to Hubitat integration instructions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Driver list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.  The list is for use within the Community version of the integration.
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Missing device help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: No longer functional.  Will be removed in future versoin.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Issue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  All devices not found. 
+a.  Corrective Attempt: 
+     1) finish install available devices, and then
+     2) run the Scan devices again.
+b.  If devices still missing, see below on alternate installation methods.</t>
+    </r>
+  </si>
+  <si>
+    <t>Select the devices to install and then select "Next".  
+a.  It can take several minutes for the installation to complete.
+b.  The Installation Status plage will list the devices installed.  Review then press "Next"
+c.  The List Kasa Devices page will appear.  This is for troubleshooting.  Select "Next"</t>
+  </si>
+  <si>
+    <t>Check each device and assure basic control works (on/off).</t>
+  </si>
+  <si>
+    <t>Alternate Cloud Installation</t>
+  </si>
+  <si>
+    <t>a.  From the Start Page, select "Problems with Install?"  
+b.  Then select the new button "Get Kasa Devices from the Kasa Cloud and add.</t>
+  </si>
+  <si>
+    <t>Select the Kasa Login and Token Update
+a.  Enter your TP-Link Kasa Account E-Mail and Paassword
+b.  Select "Get or Update Kasa Token.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If some devices are not discovered (not on the List Kasa Devices page), they can still be connected to Hubitat via the CLOUD interface.
+a.  Adding devices via the cloud interface does NOT affect previously installed devices.
+b.  The cloud interface is secondary because of performance and also loss of local control in-case of Internet failure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOTE: you must diasble the Kasa App two-factor integration before using the Cloud integration capability.</t>
+    </r>
+  </si>
+  <si>
+    <t>Add Devices
+a.  Verify that the file "Current Kasa Token" is not null.
+b.  Select "Add Devices to the Device Array"</t>
+  </si>
+  <si>
+    <t>Adding devices is the same as in step 5.</t>
+  </si>
+  <si>
+    <t>These instructions do NOT apply to the Hubitat version of the integration.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2106,8 +2297,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2153,6 +2350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,7 +2518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2353,46 +2556,262 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2401,155 +2820,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2560,29 +2862,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2593,21 +2886,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2647,86 +2925,23 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2751,22 +2966,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>120770</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>138023</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1830</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>189782</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>867628</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A434632-6121-4D53-BB31-CC01D2104777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846741E8-6F05-9AFD-11BE-2EE478F70C23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2782,8 +2997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="379562" y="9851366"/>
-          <a:ext cx="3521408" cy="2846718"/>
+          <a:off x="257175" y="7848600"/>
+          <a:ext cx="3467953" cy="4486275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,22 +3010,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1529558</xdr:rowOff>
+      <xdr:colOff>863506</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD716038-603D-DA9A-9858-6FCFF3381D8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3321277-923E-453E-ADB6-9523B62F4BD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2826,8 +3041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="4257675"/>
-          <a:ext cx="3314700" cy="4415633"/>
+          <a:off x="304800" y="12420600"/>
+          <a:ext cx="3416206" cy="4819650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3364,10 +3579,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3381,541 +3596,682 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="2:8" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+        <v>228</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-    </row>
-    <row r="5" spans="2:8" ht="105.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="2:8" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C4" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+    </row>
+    <row r="5" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+    </row>
+    <row r="7" spans="2:8" ht="105.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+    </row>
+    <row r="10" spans="2:8" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-    </row>
-    <row r="21" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
-    </row>
-    <row r="35" spans="2:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
-    </row>
-    <row r="36" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C36" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
-    </row>
-    <row r="37" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="41" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
+      <c r="C26" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+    </row>
+    <row r="27" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+    </row>
+    <row r="37" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+    </row>
+    <row r="38" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+    </row>
+    <row r="40" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>5</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
+    </row>
+    <row r="41" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>6</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
+    </row>
+    <row r="42" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="141"/>
+    </row>
+    <row r="43" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
+    </row>
+    <row r="44" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>7</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
+    </row>
+    <row r="45" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>8</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="68"/>
+    </row>
+    <row r="46" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>9</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+    </row>
+    <row r="47" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>10</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="68"/>
+    </row>
+    <row r="48" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="21"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="32" t="s">
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="78"/>
+    </row>
+    <row r="51" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="75"/>
+      <c r="D51" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+    </row>
+    <row r="52" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="79"/>
+      <c r="D52" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="75"/>
+      <c r="D53" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+    </row>
+    <row r="54" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="75"/>
+      <c r="D54" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+    </row>
+    <row r="55" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="75"/>
+      <c r="D55" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+    </row>
+    <row r="56" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="75"/>
+      <c r="D56" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+    </row>
+    <row r="57" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="75"/>
+      <c r="D57" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-    </row>
-    <row r="42" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-    </row>
-    <row r="43" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-    </row>
-    <row r="45" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="39">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="B11:E25"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="F23:H35"/>
-    <mergeCell ref="B23:E35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="F8:H22"/>
-    <mergeCell ref="B8:E22"/>
+    <mergeCell ref="F27:H39"/>
+    <mergeCell ref="B27:E39"/>
+    <mergeCell ref="F11:H25"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="B10:H10"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C26:H26"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D41" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
-    <hyperlink ref="D42" r:id="rId2" xr:uid="{A75C0035-2CD4-4BDA-A0B2-8B78E0C29A4F}"/>
-    <hyperlink ref="D43" r:id="rId3" xr:uid="{30C9E6A8-AAC4-4002-BA82-B2776924D25C}"/>
-    <hyperlink ref="D44" r:id="rId4" xr:uid="{2F69CC39-00C6-4812-A25C-E964D3B5453C}"/>
-    <hyperlink ref="D45" r:id="rId5" xr:uid="{680DA5C2-BA6E-41F0-8522-7D58D07313B8}"/>
-    <hyperlink ref="D46" r:id="rId6" xr:uid="{EAD38630-28DB-47DC-8D99-D5004492CF67}"/>
-    <hyperlink ref="D47" r:id="rId7" xr:uid="{CAFC5E40-5EF5-462A-A5FB-ED404EB64DA2}"/>
+    <hyperlink ref="D51" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
+    <hyperlink ref="D52" r:id="rId2" xr:uid="{A75C0035-2CD4-4BDA-A0B2-8B78E0C29A4F}"/>
+    <hyperlink ref="D53" r:id="rId3" xr:uid="{30C9E6A8-AAC4-4002-BA82-B2776924D25C}"/>
+    <hyperlink ref="D54" r:id="rId4" xr:uid="{2F69CC39-00C6-4812-A25C-E964D3B5453C}"/>
+    <hyperlink ref="D55" r:id="rId5" xr:uid="{680DA5C2-BA6E-41F0-8522-7D58D07313B8}"/>
+    <hyperlink ref="D56" r:id="rId6" xr:uid="{EAD38630-28DB-47DC-8D99-D5004492CF67}"/>
+    <hyperlink ref="D57" r:id="rId7" xr:uid="{CAFC5E40-5EF5-462A-A5FB-ED404EB64DA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="86" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="5" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId8"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
+    <brk id="26" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId9"/>
 </worksheet>
@@ -3926,10 +4282,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H9"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3943,269 +4299,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="2:8" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+    </row>
+    <row r="6" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="2:8" s="9" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="2:8" s="9" customFormat="1" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="2:8" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-    </row>
-    <row r="5" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+    </row>
+    <row r="10" spans="2:8" s="9" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="2:8" s="9" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-    </row>
-    <row r="7" spans="2:8" s="9" customFormat="1" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-    </row>
-    <row r="8" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-    </row>
-    <row r="9" spans="2:8" s="9" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="C10" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+      <c r="B12" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="32" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
+  <mergeCells count="26">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:H19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:H17"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{1590C945-579A-4941-9BC8-D85F2FE04924}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{F562901F-3668-4778-ACB2-DBF869E715D2}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{2DEF4A8B-F46B-4D0B-A3B3-ED5D80F2C736}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{D2CB2FBE-56A0-47DE-9819-B8B56301B929}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{09C449C5-E617-4744-9577-FD6BC5B2C77E}"/>
-    <hyperlink ref="D18" r:id="rId6" xr:uid="{3DA5FE48-2F7E-44B2-A8EF-122910A2D8E6}"/>
-    <hyperlink ref="D19" r:id="rId7" xr:uid="{A2C20F97-3444-4547-A6EC-06553E27A47F}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{1590C945-579A-4941-9BC8-D85F2FE04924}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{F562901F-3668-4778-ACB2-DBF869E715D2}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{2DEF4A8B-F46B-4D0B-A3B3-ED5D80F2C736}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{D2CB2FBE-56A0-47DE-9819-B8B56301B929}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{09C449C5-E617-4744-9577-FD6BC5B2C77E}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{3DA5FE48-2F7E-44B2-A8EF-122910A2D8E6}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{A2C20F97-3444-4547-A6EC-06553E27A47F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
-  <pageSetup scale="86" fitToHeight="0" orientation="portrait" r:id="rId8"/>
+  <pageSetup scale="83" fitToHeight="0" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4216,7 +4584,7 @@
   </sheetPr>
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -4233,423 +4601,409 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="B2" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="2:8" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="122" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="124"/>
+      <c r="H3" s="93"/>
     </row>
     <row r="4" spans="2:8" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="48" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="113" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="48" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="84"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="84"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="84"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="84"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="84"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="91"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="39"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="93"/>
+    </row>
+    <row r="29" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="41"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="118" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="125"/>
-    </row>
-    <row r="11" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="118" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="125"/>
-    </row>
-    <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="118" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="125"/>
-    </row>
-    <row r="13" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="119" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="125"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="125"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="125"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="125"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="125"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="125"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="125"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="126"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="127"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="127"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="127"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="128"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="128"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="129"/>
-    </row>
-    <row r="27" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="133" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="130"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="122" t="s">
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="39"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="124"/>
-    </row>
-    <row r="29" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="132"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="132"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="131"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
-    </row>
-    <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="117"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="130"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="124"/>
+      <c r="H33" s="93"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="132"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="137"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="95"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="132"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="136" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="137"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="95"/>
     </row>
     <row r="36" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="132"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="49"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="53"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="132"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="132"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="132"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="131"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="78"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G36:H39"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="B3:F20"/>
@@ -4665,6 +5019,20 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G36:H39"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4700,441 +5068,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+    </row>
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+    </row>
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="111"/>
+    </row>
+    <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="69"/>
+    </row>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-    </row>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
-    </row>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="69"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="69"/>
+    </row>
+    <row r="10" spans="2:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="69"/>
+    </row>
+    <row r="12" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="69"/>
+    </row>
+    <row r="13" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="69"/>
+    </row>
+    <row r="14" spans="2:8" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="69"/>
+    </row>
+    <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="69"/>
+    </row>
+    <row r="16" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="105"/>
+      <c r="D16" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="69"/>
+    </row>
+    <row r="17" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="D17" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="69"/>
+    </row>
+    <row r="18" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="105"/>
+      <c r="D18" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="69"/>
+    </row>
+    <row r="19" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="114"/>
+    </row>
+    <row r="20" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="108"/>
+    </row>
+    <row r="21" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-    </row>
-    <row r="4" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89" t="s">
+      <c r="C21" s="110"/>
+      <c r="D21" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="111"/>
+    </row>
+    <row r="22" spans="2:8" s="1" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="69"/>
+    </row>
+    <row r="23" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="69"/>
+    </row>
+    <row r="24" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="69"/>
+    </row>
+    <row r="25" spans="2:8" s="1" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="69"/>
+    </row>
+    <row r="26" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="C26" s="105"/>
+      <c r="D26" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="69"/>
+    </row>
+    <row r="27" spans="2:8" s="1" customFormat="1" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="2:8" s="1" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="65"/>
-    </row>
-    <row r="6" spans="2:8" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="65" t="s">
+      <c r="C28" s="105"/>
+      <c r="D28" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="65"/>
-    </row>
-    <row r="8" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="65"/>
-    </row>
-    <row r="9" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="2:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="H10" s="65"/>
-    </row>
-    <row r="11" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="65"/>
-    </row>
-    <row r="12" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="65"/>
-    </row>
-    <row r="14" spans="2:8" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="65"/>
-    </row>
-    <row r="17" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="65"/>
-    </row>
-    <row r="18" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="65"/>
-    </row>
-    <row r="19" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
-    </row>
-    <row r="20" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
-    </row>
-    <row r="21" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="89"/>
-    </row>
-    <row r="22" spans="2:8" s="1" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="65"/>
-    </row>
-    <row r="23" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="65"/>
-    </row>
-    <row r="24" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="65"/>
-    </row>
-    <row r="25" spans="2:8" s="1" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="65"/>
-    </row>
-    <row r="26" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="65"/>
-    </row>
-    <row r="27" spans="2:8" s="1" customFormat="1" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="65"/>
-    </row>
-    <row r="28" spans="2:8" s="1" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:H28"/>
@@ -5151,30 +5509,40 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5206,186 +5574,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="2:8" s="11" customFormat="1" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+    </row>
+    <row r="3" spans="2:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
+    </row>
+    <row r="4" spans="2:8" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+    </row>
+    <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="119"/>
+      <c r="D5" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
+    </row>
+    <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-    </row>
-    <row r="3" spans="2:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+    </row>
+    <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
-    </row>
-    <row r="4" spans="2:8" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="62" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+    </row>
+    <row r="9" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
-    </row>
-    <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="62" t="s">
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+    </row>
+    <row r="10" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="62" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+    </row>
+    <row r="11" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="117"/>
+    </row>
+    <row r="12" spans="2:8" s="4" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="D12" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+    </row>
+    <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" spans="2:8" s="4" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="64"/>
-    </row>
-    <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="62" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-    </row>
-    <row r="8" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
-    </row>
-    <row r="9" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97"/>
-    </row>
-    <row r="10" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-    </row>
-    <row r="11" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
-    </row>
-    <row r="12" spans="2:8" s="4" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-    </row>
-    <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-    </row>
-    <row r="14" spans="2:8" s="4" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -5402,6 +5763,13 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5416,8 +5784,8 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5433,192 +5801,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
+      <c r="C3" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="C4" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
+      <c r="C7" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="C8" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
+      <c r="C9" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
+      <c r="C10" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
+      <c r="B11" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="114"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
+      <c r="B12" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
+      <c r="C13" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="C14" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
+      <c r="C15" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
@@ -5628,12 +6002,6 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5651,424 +6019,424 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+    </row>
+    <row r="11" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
+    </row>
+    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="129"/>
+      <c r="C38" s="130"/>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-    </row>
-    <row r="11" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="107" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="107" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="103" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-    </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="105"/>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/KasaDevices/Docs/Documentation.xlsx
+++ b/KasaDevices/Docs/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 6-7-1\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 6-7-2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B0611A-D7E3-489F-A85B-8EE573B1ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A28E6E9-7CC3-4889-BCD3-2293515239F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="13920" windowHeight="15495" firstSheet="2" activeTab="6" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="Install" sheetId="2" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Application Description'!$B$1:$H$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$1:$C$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$4:$C$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Device Capabilities'!$B$1:$H$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Preferences'!$B$1:$H$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Troubleshooting!$B$1:$H$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Update Instructions'!$B$1:$H$20</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="253">
   <si>
     <t>Note</t>
   </si>
@@ -1763,42 +1763,7 @@
     <t>HS300</t>
   </si>
   <si>
-    <r>
-      <t>There are currently some limitations on the HS300 installation (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>being worked for future versions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>).  The following should be followed prior to installation.  If not, the plug may not install and if you exceed these value later, the plug state may no longer be maintained.
-a.  The name size total must not exceed 15 characters per individual plug.
-b.  All Kasa Schedules attachments to the HS300 should be removed (use the Hubitat capabilities instead).</t>
-    </r>
-  </si>
-  <si>
     <t>Using your router, assign static IP addresses (DHCP reservations) for your devices.</t>
-  </si>
-  <si>
-    <t>Starting with Hubitat Version 2.3.3, there are two integrations in the Hubitat environment.  The Community method requires installation of the Application and required drivers prior to running the App.  The integrated driver is embedded in the Hub's database.  Once 2.3.3 is released, installation should be used for NEW installations.</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>3A</t>
   </si>
   <si>
     <r>
@@ -1818,95 +1783,6 @@
     </r>
   </si>
   <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Prior to Hubitat version 2.3.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:  Load the Application and Driver files
-a.  HPM: Search by Keyword for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kasa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>", Package is "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kasa Device Integration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>".
-b.  Manual: From GitHub site:  https://github.com/DaveGut/HubitatActive/tree/master/KasaDevices
-c.  Direct link using the Apps Code and Drivers Code edit page "Import" function using the links at the bottom of this page.  During the Hubitat application running (below), you will be given a list of required drivers for your device(s).  If you do not have the correct driver, the device will not be created.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>After Hubitat 2.3.3 is release</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, code installation is not requred.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Hubitat version 2.3.3 and later.
 </t>
@@ -1920,23 +1796,6 @@
       </rPr>
       <t>a.  Go to Apps
 b.  Select "Add Built-in App"
-c.  Scroll down and select "Kasa Integration"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hubitat version 2.3.2 and earlier.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a.  Go to Apps
-b.  Select "Add User App"
 c.  Scroll down and select "Kasa Integration"</t>
     </r>
   </si>
@@ -2224,6 +2083,74 @@
   </si>
   <si>
     <t>These instructions do NOT apply to the Hubitat version of the integration.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If these conditions are NOT met</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, the HS300 operation witin Hubitat will require more resources than other Kasa devices.  To avoid adverse Hubitat impacts, the HS300 will automatically be limited to a poll interval of 1 minute minimum.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For optimum performance,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> you should assure the following BEFORE installing a HS300 device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:
+a.  All HS300 Schedule actions should be removed from the device via the Kasa phone app.
+b.  The total size of the names of the HS300 devices should be limited to 90 characters total (average 15 per plug).</t>
+    </r>
+  </si>
+  <si>
+    <t>Version 6.7.2 Changes</t>
+  </si>
+  <si>
+    <t>HS300 truncated Message Fix</t>
+  </si>
+  <si>
+    <t>App/Plugs</t>
+  </si>
+  <si>
+    <t>Fixed HS300 truncated message on discovery.  Also, fixed driver comms to use rawSocket when this condition is encountered..</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>App/All devices</t>
+  </si>
+  <si>
+    <t>General cleanup for built-in accommodation.</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2231,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2353,14 +2280,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2513,6 +2434,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2715,6 +2649,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2724,87 +2697,66 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2924,24 +2876,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2967,13 +2901,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>867628</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3011,13 +2945,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>863506</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>552450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3579,10 +3513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H58"/>
+  <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:P37"/>
+    <sheetView showWhiteSpace="0" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3606,12 +3540,12 @@
       <c r="G1" s="43"/>
       <c r="H1" s="44"/>
     </row>
-    <row r="2" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="71" t="s">
         <v>228</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -3619,120 +3553,106 @@
       <c r="G2" s="46"/>
       <c r="H2" s="47"/>
     </row>
-    <row r="3" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+    <row r="3" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="72"/>
+      <c r="C3" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C5" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+    </row>
+    <row r="6" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+    </row>
+    <row r="7" spans="2:8" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-    </row>
-    <row r="6" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-    </row>
-    <row r="7" spans="2:8" ht="105.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>237</v>
-      </c>
+      <c r="C7" s="69"/>
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-    </row>
-    <row r="8" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="138" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="138" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-    </row>
-    <row r="10" spans="2:8" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-    </row>
-    <row r="11" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="70"/>
+    </row>
+    <row r="8" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="60"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -3813,7 +3733,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="53"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="60"/>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
@@ -3823,64 +3743,64 @@
       <c r="H21" s="53"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-    </row>
-    <row r="26" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="C23" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+    </row>
+    <row r="24" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="60"/>
@@ -3945,7 +3865,7 @@
       <c r="G34" s="52"/>
       <c r="H34" s="53"/>
     </row>
-    <row r="35" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
       <c r="D35" s="61"/>
@@ -3954,324 +3874,295 @@
       <c r="G35" s="52"/>
       <c r="H35" s="53"/>
     </row>
-    <row r="36" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
-    </row>
-    <row r="37" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
-    </row>
-    <row r="38" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
-    </row>
-    <row r="39" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-    </row>
-    <row r="40" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
+    <row r="36" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
         <v>5</v>
       </c>
-      <c r="C40" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-    </row>
-    <row r="41" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+    </row>
+    <row r="38" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>6</v>
+      </c>
+      <c r="C38" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81"/>
+    </row>
+    <row r="39" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="85"/>
+    </row>
+    <row r="40" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="87"/>
+    </row>
+    <row r="41" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
-        <v>6</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="68"/>
-    </row>
-    <row r="42" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="141"/>
-    </row>
-    <row r="43" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="82"/>
+        <v>7</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="81"/>
+    </row>
+    <row r="42" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>8</v>
+      </c>
+      <c r="C42" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="81"/>
+    </row>
+    <row r="43" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <v>9</v>
+      </c>
+      <c r="C43" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="81"/>
     </row>
     <row r="44" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
+        <v>10</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="81"/>
+    </row>
+    <row r="45" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="21"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="75"/>
+    </row>
+    <row r="48" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+    </row>
+    <row r="49" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="78"/>
+      <c r="D49" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+    </row>
+    <row r="50" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
-    </row>
-    <row r="45" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="7">
+      <c r="C50" s="77"/>
+      <c r="D50" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+    </row>
+    <row r="51" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68"/>
-    </row>
-    <row r="46" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+      <c r="C51" s="77"/>
+      <c r="D51" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+    </row>
+    <row r="52" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+    </row>
+    <row r="53" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="77"/>
+      <c r="D53" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+    </row>
+    <row r="54" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
-    </row>
-    <row r="47" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
-        <v>10</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="68"/>
-    </row>
-    <row r="48" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="21"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="78"/>
-    </row>
-    <row r="51" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-    </row>
-    <row r="52" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-    </row>
-    <row r="53" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-    </row>
-    <row r="54" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-    </row>
-    <row r="55" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-    </row>
-    <row r="56" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-    </row>
-    <row r="57" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="74" t="s">
+      <c r="C54" s="77"/>
+      <c r="D54" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
+  <mergeCells count="37">
     <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="B11:E25"/>
-    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="B8:E22"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
     <mergeCell ref="C41:H41"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="D52:H52"/>
     <mergeCell ref="D53:H53"/>
     <mergeCell ref="D54:H54"/>
-    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="F27:H39"/>
-    <mergeCell ref="B27:E39"/>
-    <mergeCell ref="F11:H25"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="F24:H36"/>
+    <mergeCell ref="B24:E36"/>
+    <mergeCell ref="F8:H22"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="B10:H10"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D51" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
-    <hyperlink ref="D52" r:id="rId2" xr:uid="{A75C0035-2CD4-4BDA-A0B2-8B78E0C29A4F}"/>
-    <hyperlink ref="D53" r:id="rId3" xr:uid="{30C9E6A8-AAC4-4002-BA82-B2776924D25C}"/>
-    <hyperlink ref="D54" r:id="rId4" xr:uid="{2F69CC39-00C6-4812-A25C-E964D3B5453C}"/>
-    <hyperlink ref="D55" r:id="rId5" xr:uid="{680DA5C2-BA6E-41F0-8522-7D58D07313B8}"/>
-    <hyperlink ref="D56" r:id="rId6" xr:uid="{EAD38630-28DB-47DC-8D99-D5004492CF67}"/>
-    <hyperlink ref="D57" r:id="rId7" xr:uid="{CAFC5E40-5EF5-462A-A5FB-ED404EB64DA2}"/>
+    <hyperlink ref="D48" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
+    <hyperlink ref="D49" r:id="rId2" xr:uid="{A75C0035-2CD4-4BDA-A0B2-8B78E0C29A4F}"/>
+    <hyperlink ref="D50" r:id="rId3" xr:uid="{30C9E6A8-AAC4-4002-BA82-B2776924D25C}"/>
+    <hyperlink ref="D51" r:id="rId4" xr:uid="{2F69CC39-00C6-4812-A25C-E964D3B5453C}"/>
+    <hyperlink ref="D52" r:id="rId5" xr:uid="{680DA5C2-BA6E-41F0-8522-7D58D07313B8}"/>
+    <hyperlink ref="D53" r:id="rId6" xr:uid="{EAD38630-28DB-47DC-8D99-D5004492CF67}"/>
+    <hyperlink ref="D54" r:id="rId7" xr:uid="{CAFC5E40-5EF5-462A-A5FB-ED404EB64DA2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId8"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="26" max="16383" man="1"/>
+    <brk id="23" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId9"/>
 </worksheet>
@@ -4284,8 +4175,8 @@
   </sheetPr>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4311,7 +4202,7 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -4337,201 +4228,201 @@
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="87"/>
     </row>
     <row r="6" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="2:8" s="9" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="2:8" s="9" customFormat="1" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
     </row>
     <row r="10" spans="2:8" s="9" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
     </row>
     <row r="14" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="74" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="15" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="74" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
     </row>
     <row r="16" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="74" t="s">
+      <c r="C17" s="77"/>
+      <c r="D17" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="74" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
     </row>
     <row r="19" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="74" t="s">
+      <c r="C19" s="77"/>
+      <c r="D19" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
     </row>
     <row r="20" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="74" t="s">
+      <c r="C20" s="77"/>
+      <c r="D20" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -4601,208 +4492,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:8" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="2:8" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
       <c r="G4" s="52" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="30"/>
       <c r="H5" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="30"/>
       <c r="H6" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="52" t="s">
         <v>219</v>
       </c>
       <c r="H7" s="53"/>
     </row>
     <row r="8" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="52" t="s">
         <v>220</v>
       </c>
       <c r="H8" s="53"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="52"/>
       <c r="H9" s="53"/>
     </row>
     <row r="10" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="85" t="s">
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="85" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="84"/>
+      <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="85" t="s">
+      <c r="B12" s="105"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="83" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="84"/>
+      <c r="H13" s="100"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="84"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="84"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="100"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="100"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="84"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="100"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="84"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="100"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="84"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="100"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="91"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="95"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
@@ -4859,15 +4750,15 @@
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="109"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
@@ -4875,10 +4766,10 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="92" t="s">
+      <c r="G28" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="93"/>
+      <c r="H28" s="97"/>
     </row>
     <row r="29" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
@@ -4912,15 +4803,15 @@
       <c r="H31" s="56"/>
     </row>
     <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="39"/>
@@ -4928,10 +4819,10 @@
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="92" t="s">
+      <c r="G33" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="93"/>
+      <c r="H33" s="97"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
@@ -4939,10 +4830,10 @@
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="94" t="s">
+      <c r="G34" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="95"/>
+      <c r="H34" s="99"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="41"/>
@@ -4950,10 +4841,10 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="94" t="s">
+      <c r="G35" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="95"/>
+      <c r="H35" s="99"/>
     </row>
     <row r="36" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="41"/>
@@ -4999,8 +4890,8 @@
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="87"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5068,404 +4959,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="116"/>
+      <c r="D4" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111" t="s">
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="111"/>
+      <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="69" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="69"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="111"/>
+      <c r="D6" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="69"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69" t="s">
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="69" t="s">
+      <c r="C8" s="111"/>
+      <c r="D8" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="69" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69" t="s">
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="69"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="69" t="s">
+      <c r="C10" s="111"/>
+      <c r="D10" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="69"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="69" t="s">
+      <c r="C11" s="111"/>
+      <c r="D11" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69" t="s">
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="69"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="69" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69" t="s">
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="69"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="111"/>
+      <c r="D13" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="69"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="69" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="69" t="s">
+      <c r="C15" s="111"/>
+      <c r="D15" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="69" t="s">
+      <c r="C16" s="111"/>
+      <c r="D16" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="69"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="69" t="s">
+      <c r="C17" s="111"/>
+      <c r="D17" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="69"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="69" t="s">
+      <c r="C18" s="111"/>
+      <c r="D18" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69" t="s">
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="69"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="114"/>
     </row>
     <row r="21" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111" t="s">
+      <c r="C21" s="116"/>
+      <c r="D21" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111" t="s">
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="111"/>
+      <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" s="1" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="69" t="s">
+      <c r="C22" s="111"/>
+      <c r="D22" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="69"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="111"/>
+      <c r="D23" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69" t="s">
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="69"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="69" t="s">
+      <c r="C24" s="111"/>
+      <c r="D24" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69" t="s">
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="69"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="2:8" s="1" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="69" t="s">
+      <c r="C25" s="111"/>
+      <c r="D25" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69" t="s">
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="69"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="69" t="s">
+      <c r="C26" s="111"/>
+      <c r="D26" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="69"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="2:8" s="1" customFormat="1" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="69" t="s">
+      <c r="C27" s="111"/>
+      <c r="D27" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69" t="s">
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="69"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="2:8" s="1" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="69" t="s">
+      <c r="C28" s="111"/>
+      <c r="D28" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="69"/>
+      <c r="H28" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -5574,176 +5465,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="2:8" s="11" customFormat="1" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="2:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="125"/>
+      <c r="D5" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="125"/>
+      <c r="D6" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="125"/>
+      <c r="D8" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
     </row>
     <row r="10" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
     </row>
     <row r="12" spans="2:8" s="4" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="125"/>
+      <c r="D12" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="125"/>
+      <c r="D13" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="125"/>
+      <c r="D14" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5801,189 +5692,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="114"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="114"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6011,10 +5902,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FC7E-86F3-4E8F-B488-D1BDD385F89C}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E8:F15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6026,433 +5917,463 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="130" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>214</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="124" t="s">
+    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="130" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-    </row>
-    <row r="11" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
+      <c r="B14" s="140"/>
+      <c r="C14" s="141"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B24" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="132" t="s">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="138" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B26" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="128" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="B27" s="135"/>
+      <c r="C27" s="136"/>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B28" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C28" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B29" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C29" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="132" t="s">
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B31" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="128" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="130"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="136"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B33" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B34" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B35" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="128" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="129"/>
-      <c r="C36" s="130"/>
-    </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="B39" s="135"/>
+      <c r="C39" s="136"/>
+    </row>
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B40" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C40" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="128" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="129"/>
-      <c r="C38" s="130"/>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>149</v>
-      </c>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B45" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KasaDevices/Docs/Documentation.xlsx
+++ b/KasaDevices/Docs/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 6-7-2\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 - Development\1 - TP-Link\Version 2-3-4\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A28E6E9-7CC3-4889-BCD3-2293515239F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA58705-2DF1-4671-8628-4A20FACDD740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="0" windowWidth="13920" windowHeight="15495" firstSheet="2" activeTab="6" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="16920" windowHeight="11625" firstSheet="3" activeTab="6" xr2:uid="{A66BEBBE-4A6A-408C-AEC7-2330B5B67017}"/>
   </bookViews>
   <sheets>
     <sheet name="Install" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Application Description'!$B$1:$H$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$4:$C$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Changes!$A$8:$C$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Device Capabilities'!$B$1:$H$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Device Preferences'!$B$1:$H$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Install!$B$1:$H$54</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="260">
   <si>
     <t>Note</t>
   </si>
@@ -2151,6 +2151,27 @@
   </si>
   <si>
     <t>General cleanup for built-in accommodation.</t>
+  </si>
+  <si>
+    <t>Version 2.4.1-1 Changes</t>
+  </si>
+  <si>
+    <t>LogTrace error</t>
+  </si>
+  <si>
+    <t>Removed unnecessary log.trace (left in by mistake).</t>
+  </si>
+  <si>
+    <t>HS300 Message Errors</t>
+  </si>
+  <si>
+    <t>Updated app and driver handling to allow for recovery if name lengths are fixed.</t>
+  </si>
+  <si>
+    <t>Version Print</t>
+  </si>
+  <si>
+    <t>Added back in driver and app versions to file and log printing.</t>
   </si>
 </sst>
 </file>
@@ -2577,6 +2598,78 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2622,33 +2715,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2670,54 +2736,48 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2733,53 +2793,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2805,14 +2835,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2822,21 +2858,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3530,458 +3551,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="2:8" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="48" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
     </row>
     <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>5</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="48" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
     </row>
     <row r="27" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77"/>
     </row>
     <row r="28" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
     <row r="30" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
     </row>
     <row r="32" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
     </row>
     <row r="33" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
     </row>
     <row r="34" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
     </row>
     <row r="35" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="77"/>
     </row>
     <row r="36" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="56"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80"/>
     </row>
     <row r="37" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>5</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="81"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
     </row>
     <row r="38" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>6</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="81"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="57"/>
     </row>
     <row r="40" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="87"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="59"/>
     </row>
     <row r="41" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>7</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="81"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>8</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="81"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
     </row>
     <row r="43" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>9</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="81"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
     </row>
     <row r="44" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>10</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="81"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
     </row>
     <row r="45" spans="2:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
@@ -3993,117 +4014,117 @@
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="82" t="s">
+      <c r="B46" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="75"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
     </row>
     <row r="48" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="76" t="s">
+      <c r="C48" s="61"/>
+      <c r="D48" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="76" t="s">
+      <c r="C49" s="65"/>
+      <c r="D49" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
     </row>
     <row r="50" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="76" t="s">
+      <c r="C50" s="61"/>
+      <c r="D50" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
     </row>
     <row r="51" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="76" t="s">
+      <c r="C51" s="61"/>
+      <c r="D51" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
     </row>
     <row r="52" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="76" t="s">
+      <c r="C52" s="61"/>
+      <c r="D52" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
     </row>
     <row r="53" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="77"/>
-      <c r="D53" s="76" t="s">
+      <c r="C53" s="61"/>
+      <c r="D53" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
     </row>
     <row r="54" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="77" t="s">
+      <c r="B54" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="76" t="s">
+      <c r="C54" s="61"/>
+      <c r="D54" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F55" s="2"/>
@@ -4111,31 +4132,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="B8:E22"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="F24:H36"/>
@@ -4148,6 +4144,31 @@
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="B8:E22"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D48" r:id="rId1" xr:uid="{63C3357B-B060-4C9D-8BDF-2A65F538E71A}"/>
@@ -4190,242 +4211,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:8" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="2:8" s="9" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="2:8" s="9" customFormat="1" ht="102.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="2:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="2:8" s="9" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="2:8" ht="54.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="76" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="76" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="76" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="76" t="s">
+      <c r="C18" s="61"/>
+      <c r="D18" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="76" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="2:8" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="76" t="s">
+      <c r="C20" s="61"/>
+      <c r="D20" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:H15"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -4436,22 +4473,6 @@
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{1590C945-579A-4941-9BC8-D85F2FE04924}"/>
@@ -4492,208 +4513,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="96" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="2:8" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="52" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="30"/>
       <c r="H5" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="105"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="30"/>
       <c r="H6" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="52" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="77"/>
     </row>
     <row r="8" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="52" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="53"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="105"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
     </row>
     <row r="10" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="101" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="H10" s="100"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="101" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="100"/>
+      <c r="H11" s="97"/>
     </row>
     <row r="12" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="105"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="101" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="H12" s="100"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="94" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="100"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="100"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="105"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="100"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="100"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="100"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="97"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="100"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="97"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="100"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="95"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="25"/>
@@ -4750,15 +4771,15 @@
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
@@ -4766,10 +4787,10 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="97"/>
+      <c r="H28" s="91"/>
     </row>
     <row r="29" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
@@ -4777,10 +4798,10 @@
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="77"/>
     </row>
     <row r="30" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
@@ -4788,10 +4809,10 @@
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="H30" s="53"/>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
@@ -4799,19 +4820,19 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
     </row>
     <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="39"/>
@@ -4819,10 +4840,10 @@
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="97"/>
+      <c r="H33" s="91"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
@@ -4830,10 +4851,10 @@
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="98" t="s">
+      <c r="G34" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="99"/>
+      <c r="H34" s="109"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="41"/>
@@ -4841,10 +4862,10 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="98" t="s">
+      <c r="G35" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="99"/>
+      <c r="H35" s="109"/>
     </row>
     <row r="36" spans="2:8" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="41"/>
@@ -4852,10 +4873,10 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="53"/>
+      <c r="H36" s="77"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
@@ -4863,8 +4884,8 @@
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="77"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
@@ -4872,8 +4893,8 @@
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="77"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
@@ -4881,8 +4902,8 @@
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="77"/>
     </row>
     <row r="40" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="40"/>
@@ -4890,11 +4911,25 @@
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G36:H39"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="B3:F20"/>
@@ -4910,20 +4945,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G36:H39"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4959,407 +4980,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="120"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117" t="s">
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="117"/>
+      <c r="H4" s="120"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="66"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="30.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="114"/>
+      <c r="D6" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="66"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="62.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="114"/>
+      <c r="D7" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="114"/>
+      <c r="D10" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="66"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="114"/>
+      <c r="D11" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="66"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="114"/>
+      <c r="D12" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66" t="s">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="66"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="114"/>
+      <c r="D13" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="114"/>
+      <c r="D14" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="66"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="114"/>
+      <c r="D15" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66" t="s">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="66"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="66" t="s">
+      <c r="C16" s="114"/>
+      <c r="D16" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="66"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="2:8" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="114"/>
+      <c r="D17" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66" t="s">
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="114"/>
+      <c r="D18" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="66"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="114"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117" t="s">
+      <c r="C21" s="119"/>
+      <c r="D21" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117" t="s">
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="117"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="2:8" s="1" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="66" t="s">
+      <c r="C22" s="114"/>
+      <c r="D22" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66" t="s">
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="66"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="2:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="114"/>
+      <c r="D23" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66" t="s">
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="66"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="2:8" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="66" t="s">
+      <c r="C24" s="114"/>
+      <c r="D24" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66" t="s">
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="66"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="2:8" s="1" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="66" t="s">
+      <c r="C25" s="114"/>
+      <c r="D25" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66" t="s">
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="66"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="2:8" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="66" t="s">
+      <c r="C26" s="114"/>
+      <c r="D26" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66" t="s">
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="66"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="2:8" s="1" customFormat="1" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="66" t="s">
+      <c r="C27" s="114"/>
+      <c r="D27" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66" t="s">
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="66"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="2:8" s="1" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="66" t="s">
+      <c r="C28" s="114"/>
+      <c r="D28" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66" t="s">
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="66"/>
+      <c r="H28" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B19:H19"/>
@@ -5376,64 +5455,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5465,179 +5486,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="2:8" s="11" customFormat="1" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="2:8" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="123"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
     </row>
     <row r="4" spans="2:8" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="124" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="125"/>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="124" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="125"/>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="2:8" s="4" customFormat="1" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="124" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="125"/>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="2:8" s="4" customFormat="1" ht="80.849999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="124" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="125"/>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="124" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="125"/>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="128"/>
     </row>
     <row r="10" spans="2:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="124" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="125"/>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="2:8" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="128"/>
     </row>
     <row r="12" spans="2:8" s="4" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="124" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="125"/>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="2:8" s="4" customFormat="1" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="124" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="125"/>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="2:8" s="4" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="124" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="125"/>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -5654,13 +5682,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5692,32 +5713,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="120"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="152.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="81" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="129"/>
@@ -5730,7 +5751,7 @@
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="81" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="129"/>
@@ -5740,28 +5761,28 @@
       <c r="H4" s="129"/>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
@@ -5780,33 +5801,33 @@
       <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="85.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="81" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="129"/>
@@ -5816,26 +5837,26 @@
       <c r="H10" s="129"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
     </row>
     <row r="12" spans="2:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
@@ -5854,20 +5875,20 @@
       <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="2:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="81" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="129"/>
@@ -5878,12 +5899,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:H5"/>
@@ -5893,6 +5908,12 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -5902,10 +5923,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B6FC7E-86F3-4E8F-B488-D1BDD385F89C}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,462 +5939,503 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B1" s="130"/>
       <c r="C1" s="130"/>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="130" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="130" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="139" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="133"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="130" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="140"/>
+      <c r="C18" s="141"/>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="137" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B27" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B28" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="138" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B30" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C30" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="134" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="136"/>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B32" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B33" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C33" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="138" t="s">
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B35" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C35" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="134" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="136"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="B36" s="135"/>
+      <c r="C36" s="136"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B37" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B38" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B39" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B41" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="134" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="136"/>
-    </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="B43" s="135"/>
+      <c r="C43" s="136"/>
+    </row>
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B44" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C44" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="134" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="B45" s="135"/>
+      <c r="C45" s="136"/>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B46" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B47" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="48" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B48" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B49" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
